--- a/Analisi Iniziale/RaccoltaRequisiti.xlsx
+++ b/Analisi Iniziale/RaccoltaRequisiti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISS_TemaFinale\iss2019TemaFinale\Analisi Iniziale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F942064-7FFB-4BAC-B4E0-BD6CD434933E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF726C-AEFA-49AC-B23D-4D88CB6F69F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>N. Requisito</t>
   </si>
@@ -649,6 +649,101 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> deve essere in grado di segnalare un allarme se il cibo nel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fridge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> non è disponibile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fridge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve poter mostrare il proprio contenuto al </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maitre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ad ogni cibo è associato un </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>food-code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RBR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> deve essere in grado di notificare al </t>
     </r>
     <r>
@@ -670,82 +765,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> il completamento dei task </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prepare</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clear</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RBR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deve essere in grado di segnalare un allarme se il cibo nel </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fridge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> non è disponibile</t>
+      <t xml:space="preserve"> il completamento dei task</t>
     </r>
   </si>
   <si>
@@ -760,44 +780,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>fridge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deve poter mostrare il proprio contenuto al </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>maitre</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ad ogni cibo è associato un </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>food-code</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dopo l'avvio di un task non può attivarne altri finchè l'ultimo non viene completato</t>
     </r>
   </si>
 </sst>
@@ -805,7 +798,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,13 +823,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1165,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:I24"/>
+  <dimension ref="A4:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1291,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1302,14 +1288,14 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -1320,7 +1306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -1331,7 +1317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -1342,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -1353,38 +1339,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>17</v>
       </c>
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analisi Iniziale/RaccoltaRequisiti.xlsx
+++ b/Analisi Iniziale/RaccoltaRequisiti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISS_TemaFinale\iss2019TemaFinale\Analisi Iniziale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF726C-AEFA-49AC-B23D-4D88CB6F69F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1069CA-E29B-4199-AF56-BB64562C36D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
